--- a/tests/fixtures/files/temaplate.xlsx
+++ b/tests/fixtures/files/temaplate.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A1314" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
@@ -255,14 +255,14 @@
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="33.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="20.37"/>
@@ -1814,7 +1814,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/tests/fixtures/files/temaplate.xlsx
+++ b/tests/fixtures/files/temaplate.xlsx
@@ -266,8 +266,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.5"/>
